--- a/downloaded_files/CMPS201_Lecture-35666.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35666.xlsx
@@ -2892,7 +2892,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.6664036227</x:v>
+        <x:v>45921.9668216782</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Lecture-35666.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35666.xlsx
@@ -3137,11 +3137,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20110]20110-45-الجيزة الرئيسي Time : Monday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20504]20504-60-الجيزة الرئيسي Time : Monday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20110]20110-45-الجيزة الرئيسي Time : Monday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20504]20504-60-الجيزة الرئيسي Time : Monday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20110]20110-45-الجيزة الرئيسي Time : Monday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20504]20504-60-الجيزة الرئيسي Time : Monday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/CMPS201_Lecture-35666.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35666.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>ِAhmed Sherif Hamdi Abdullah</x:t>
   </x:si>
   <x:si>
+    <x:t>1230009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد طارق احمد اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Tarek Ahmed Ismail</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230012</x:t>
   </x:si>
   <x:si>
@@ -210,6 +219,15 @@
     <x:t>abdallah mohamed gamal eldin ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علاءالدين اسامه احمد علي احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230205</x:t>
   </x:si>
   <x:si>
@@ -331,6 +349,12 @@
   </x:si>
   <x:si>
     <x:t>karim wael ismaiel yousef Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كيرلس ناصر عدلى سلامة</x:t>
   </x:si>
   <x:si>
     <x:t>1230231</x:t>
@@ -713,7 +737,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E65" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E68" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1013,7 +1037,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T65"/>
+  <x:dimension ref="A1:T68"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1168,7 +1192,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4323244213</x:v>
+        <x:v>45927.073047419</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1200,7 +1224,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4149246528</x:v>
+        <x:v>45907.4323244213</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1232,7 +1256,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6651380787</x:v>
+        <x:v>45909.4149246528</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1264,7 +1288,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4213895023</x:v>
+        <x:v>45906.6651380787</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1296,7 +1320,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6688652778</x:v>
+        <x:v>45909.4213895023</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1328,7 +1352,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6675758449</x:v>
+        <x:v>45907.6688652778</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1360,7 +1384,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4235099884</x:v>
+        <x:v>45907.6675758449</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1392,7 +1416,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4166763542</x:v>
+        <x:v>45907.4235099884</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1424,7 +1448,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.6483199074</x:v>
+        <x:v>45907.4166763542</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1456,7 +1480,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4552231134</x:v>
+        <x:v>45909.6483199074</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1484,9 +1508,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6849449884</x:v>
+        <x:v>45914.4552231134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1509,16 +1535,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.4174121875</x:v>
+        <x:v>45907.6849449884</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1550,7 +1574,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4411153588</x:v>
+        <x:v>45907.4174121875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1582,7 +1606,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.4411153588</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1614,7 +1638,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4787335648</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1646,7 +1670,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45907.4787335648</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1678,7 +1702,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1710,7 +1734,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1742,7 +1766,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4173934028</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1774,7 +1798,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45927.0690451736</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1806,7 +1830,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4610953704</x:v>
+        <x:v>45909.4173934028</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1838,7 +1862,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4263388889</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1870,7 +1894,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4144299769</x:v>
+        <x:v>45907.4610953704</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1902,7 +1926,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45907.4263388889</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1934,7 +1958,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6791894329</x:v>
+        <x:v>45907.4144299769</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1962,9 +1986,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45918.0805219097</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1987,16 +2013,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45907.6791894329</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2019,16 +2045,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45918.0805219097</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2060,7 +2084,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2092,7 +2116,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2124,7 +2148,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4234258912</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2156,7 +2180,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2188,7 +2212,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4229982639</x:v>
+        <x:v>45907.4234258912</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2220,7 +2244,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4524542824</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2248,11 +2272,9 @@
       <x:c r="C38" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
+      <x:c r="D38" s="2" t="s"/>
       <x:c r="E38" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45927.0678146991</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2275,16 +2297,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4201049769</x:v>
+        <x:v>45907.4229982639</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2307,16 +2329,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4204888079</x:v>
+        <x:v>45907.4524542824</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2339,16 +2361,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4290527431</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2371,16 +2393,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4143381944</x:v>
+        <x:v>45907.4201049769</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2403,16 +2425,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45907.4204888079</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2435,16 +2457,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="s">
+      <x:c r="D44" s="2" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.4290527431</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2467,16 +2489,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="s">
+      <x:c r="D45" s="2" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45907.4143381944</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2499,16 +2521,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="C46" s="2" t="s">
+      <x:c r="D46" s="2" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2531,16 +2553,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="s">
+      <x:c r="D47" s="2" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.415046956</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2563,16 +2585,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="C48" s="2" t="s">
+      <x:c r="D48" s="2" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2595,16 +2617,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="s">
+      <x:c r="D49" s="2" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2627,16 +2649,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="C50" s="2" t="s">
+      <x:c r="D50" s="2" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45907.415046956</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2659,16 +2681,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="C51" s="2" t="s">
+      <x:c r="D51" s="2" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6656036227</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2691,16 +2713,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="C52" s="2" t="s">
+      <x:c r="D52" s="2" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="D52" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2723,16 +2745,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="C53" s="2" t="s">
+      <x:c r="D53" s="2" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="D53" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.4332135069</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2755,16 +2777,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="C54" s="2" t="s">
+      <x:c r="D54" s="2" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="D54" s="2" t="s">
-        <x:v>161</x:v>
-      </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.6656036227</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2787,16 +2809,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="C55" s="2" t="s">
+      <x:c r="D55" s="2" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="D55" s="2" t="s">
-        <x:v>164</x:v>
-      </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.4179391204</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2819,16 +2841,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="C56" s="2" t="s">
+      <x:c r="D56" s="2" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="D56" s="2" t="s">
-        <x:v>167</x:v>
-      </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.8047603356</x:v>
+        <x:v>45907.4332135069</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2851,16 +2873,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="C57" s="2" t="s">
+      <x:c r="D57" s="2" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="D57" s="2" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4152556366</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2883,16 +2905,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="C58" s="2" t="s">
+      <x:c r="D58" s="2" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="D58" s="2" t="s">
-        <x:v>173</x:v>
-      </x:c>
       <x:c r="E58" s="3">
-        <x:v>45921.9668216782</x:v>
+        <x:v>45907.4179391204</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2915,16 +2937,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B59" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="C59" s="2" t="s">
+      <x:c r="D59" s="2" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="D59" s="2" t="s">
-        <x:v>176</x:v>
-      </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.4205106134</x:v>
+        <x:v>45907.8047603356</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2947,16 +2969,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B60" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="C60" s="2" t="s">
+      <x:c r="D60" s="2" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="D60" s="2" t="s">
-        <x:v>179</x:v>
-      </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4199254977</x:v>
+        <x:v>45907.4152556366</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2979,16 +3001,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="C61" s="2" t="s">
+      <x:c r="D61" s="2" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="D61" s="2" t="s">
-        <x:v>182</x:v>
-      </x:c>
       <x:c r="E61" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45921.9668216782</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3011,16 +3033,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B62" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="C62" s="2" t="s">
+      <x:c r="D62" s="2" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="D62" s="2" t="s">
-        <x:v>185</x:v>
-      </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4205386921</x:v>
+        <x:v>45907.4205106134</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3043,14 +3065,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B63" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="C63" s="2" t="s">
+      <x:c r="D63" s="2" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="D63" s="2" t="s"/>
       <x:c r="E63" s="3">
-        <x:v>45907.6742420139</x:v>
+        <x:v>45907.4199254977</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3082,7 +3106,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.4382828704</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3114,7 +3138,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.4289222569</x:v>
+        <x:v>45907.4205386921</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3131,6 +3155,100 @@
       <x:c r="R65" s="2" t="s"/>
       <x:c r="S65" s="2" t="s"/>
       <x:c r="T65" s="2" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:20">
+      <x:c r="A66" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C66" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D66" s="2" t="s"/>
+      <x:c r="E66" s="3">
+        <x:v>45907.6742420139</x:v>
+      </x:c>
+      <x:c r="F66" s="2" t="s"/>
+      <x:c r="G66" s="2" t="s"/>
+      <x:c r="H66" s="2" t="s"/>
+      <x:c r="I66" s="2" t="s"/>
+      <x:c r="J66" s="2" t="s"/>
+      <x:c r="K66" s="2" t="s"/>
+      <x:c r="L66" s="2" t="s"/>
+      <x:c r="M66" s="2" t="s"/>
+      <x:c r="N66" s="2" t="s"/>
+      <x:c r="O66" s="2" t="s"/>
+      <x:c r="P66" s="2" t="s"/>
+      <x:c r="Q66" s="2" t="s"/>
+      <x:c r="R66" s="2" t="s"/>
+      <x:c r="S66" s="2" t="s"/>
+      <x:c r="T66" s="2" t="s"/>
+    </x:row>
+    <x:row r="67" spans="1:20">
+      <x:c r="A67" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D67" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="E67" s="3">
+        <x:v>45907.4382828704</x:v>
+      </x:c>
+      <x:c r="F67" s="2" t="s"/>
+      <x:c r="G67" s="2" t="s"/>
+      <x:c r="H67" s="2" t="s"/>
+      <x:c r="I67" s="2" t="s"/>
+      <x:c r="J67" s="2" t="s"/>
+      <x:c r="K67" s="2" t="s"/>
+      <x:c r="L67" s="2" t="s"/>
+      <x:c r="M67" s="2" t="s"/>
+      <x:c r="N67" s="2" t="s"/>
+      <x:c r="O67" s="2" t="s"/>
+      <x:c r="P67" s="2" t="s"/>
+      <x:c r="Q67" s="2" t="s"/>
+      <x:c r="R67" s="2" t="s"/>
+      <x:c r="S67" s="2" t="s"/>
+      <x:c r="T67" s="2" t="s"/>
+    </x:row>
+    <x:row r="68" spans="1:20">
+      <x:c r="A68" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C68" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D68" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E68" s="3">
+        <x:v>45907.4289222569</x:v>
+      </x:c>
+      <x:c r="F68" s="2" t="s"/>
+      <x:c r="G68" s="2" t="s"/>
+      <x:c r="H68" s="2" t="s"/>
+      <x:c r="I68" s="2" t="s"/>
+      <x:c r="J68" s="2" t="s"/>
+      <x:c r="K68" s="2" t="s"/>
+      <x:c r="L68" s="2" t="s"/>
+      <x:c r="M68" s="2" t="s"/>
+      <x:c r="N68" s="2" t="s"/>
+      <x:c r="O68" s="2" t="s"/>
+      <x:c r="P68" s="2" t="s"/>
+      <x:c r="Q68" s="2" t="s"/>
+      <x:c r="R68" s="2" t="s"/>
+      <x:c r="S68" s="2" t="s"/>
+      <x:c r="T68" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35666.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35666.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>AMIRA ELSAYED ISMAIL ABDELHAMEED ELWAKEEL</x:t>
   </x:si>
   <x:si>
-    <x:t>1230153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد شريف حمدى عبدالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِAhmed Sherif Hamdi Abdullah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230009</x:t>
   </x:si>
   <x:si>
@@ -255,6 +246,15 @@
     <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر خالد مقبل محمد عبد المنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Khaled Mokbel</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230213</x:t>
   </x:si>
   <x:si>
@@ -411,6 +411,15 @@
     <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
   </x:si>
   <x:si>
+    <x:t>1230250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود حسن محمود عبدالغنى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Hassan Mahmoud Abdel-Ghani</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230175</x:t>
   </x:si>
   <x:si>
@@ -429,15 +438,6 @@
     <x:t>Marwan Ahmed Saber Hamed Ali</x:t>
   </x:si>
   <x:si>
-    <x:t>1240145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان ايهاب السيد محمد ابو دنيا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marawan Ehab Elsayed Abo Donia</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220129</x:t>
   </x:si>
   <x:si>
@@ -508,15 +508,6 @@
   </x:si>
   <x:si>
     <x:t>Nour Islam Mahmoud Elsayed Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين سامى حموده بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230122</x:t>
@@ -737,7 +728,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E68" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E67" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1037,7 +1028,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T68"/>
+  <x:dimension ref="A1:T67"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1160,7 +1151,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4367866551</x:v>
+        <x:v>45927.073047419</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.073047419</x:v>
+        <x:v>45907.4323244213</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4323244213</x:v>
+        <x:v>45909.4149246528</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4149246528</x:v>
+        <x:v>45906.6651380787</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6651380787</x:v>
+        <x:v>45909.4213895023</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4213895023</x:v>
+        <x:v>45907.6688652778</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6688652778</x:v>
+        <x:v>45907.6675758449</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6675758449</x:v>
+        <x:v>45907.4235099884</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4235099884</x:v>
+        <x:v>45907.4166763542</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1448,7 +1439,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4166763542</x:v>
+        <x:v>45909.6483199074</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1480,7 +1471,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.6483199074</x:v>
+        <x:v>45914.4552231134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1508,11 +1499,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45914.4552231134</x:v>
+        <x:v>45907.6849449884</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1535,14 +1524,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.6849449884</x:v>
+        <x:v>45907.4174121875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4174121875</x:v>
+        <x:v>45907.4411153588</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4411153588</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.4787335648</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4787335648</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45927.0690451736</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.0690451736</x:v>
+        <x:v>45909.4173934028</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4173934028</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45907.4610953704</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4610953704</x:v>
+        <x:v>45927.4222459143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -2434,7 +2425,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4204888079</x:v>
+        <x:v>45927.4187716435</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2498,7 +2489,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4143381944</x:v>
+        <x:v>45927.4163854167</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2530,7 +2521,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45907.4143381944</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2562,7 +2553,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2850,7 +2841,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4332135069</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2882,7 +2873,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4179391204</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2914,7 +2905,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4179391204</x:v>
+        <x:v>45907.8047603356</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2946,7 +2937,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.8047603356</x:v>
+        <x:v>45907.4152556366</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2978,7 +2969,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4152556366</x:v>
+        <x:v>45921.9668216782</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3010,7 +3001,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45921.9668216782</x:v>
+        <x:v>45907.4205106134</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3042,7 +3033,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4205106134</x:v>
+        <x:v>45907.4199254977</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3074,7 +3065,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4199254977</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3106,7 +3097,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45907.4205386921</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3134,11 +3125,9 @@
       <x:c r="C65" s="2" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="D65" s="2" t="s">
-        <x:v>193</x:v>
-      </x:c>
+      <x:c r="D65" s="2" t="s"/>
       <x:c r="E65" s="3">
-        <x:v>45907.4205386921</x:v>
+        <x:v>45907.6742420139</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3161,14 +3150,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B66" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C66" s="2" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="C66" s="2" t="s">
+      <x:c r="D66" s="2" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="D66" s="2" t="s"/>
       <x:c r="E66" s="3">
-        <x:v>45907.6742420139</x:v>
+        <x:v>45907.4382828704</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3200,7 +3191,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45907.4382828704</x:v>
+        <x:v>45907.4289222569</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3217,38 +3208,6 @@
       <x:c r="R67" s="2" t="s"/>
       <x:c r="S67" s="2" t="s"/>
       <x:c r="T67" s="2" t="s"/>
-    </x:row>
-    <x:row r="68" spans="1:20">
-      <x:c r="A68" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B68" s="2" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="C68" s="2" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="D68" s="2" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="E68" s="3">
-        <x:v>45907.4289222569</x:v>
-      </x:c>
-      <x:c r="F68" s="2" t="s"/>
-      <x:c r="G68" s="2" t="s"/>
-      <x:c r="H68" s="2" t="s"/>
-      <x:c r="I68" s="2" t="s"/>
-      <x:c r="J68" s="2" t="s"/>
-      <x:c r="K68" s="2" t="s"/>
-      <x:c r="L68" s="2" t="s"/>
-      <x:c r="M68" s="2" t="s"/>
-      <x:c r="N68" s="2" t="s"/>
-      <x:c r="O68" s="2" t="s"/>
-      <x:c r="P68" s="2" t="s"/>
-      <x:c r="Q68" s="2" t="s"/>
-      <x:c r="R68" s="2" t="s"/>
-      <x:c r="S68" s="2" t="s"/>
-      <x:c r="T68" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35666.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35666.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -349,6 +349,15 @@
   </x:si>
   <x:si>
     <x:t>karim wael ismaiel yousef Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزي احمد حسين عبدالعزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kenzie Ahmed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1230323</x:t>
@@ -728,7 +737,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E67" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E68" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1028,7 +1037,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T67"/>
+  <x:dimension ref="A1:T68"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2263,9 +2272,11 @@
       <x:c r="C38" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s"/>
+      <x:c r="D38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45927.0678146991</x:v>
+        <x:v>45927.9637525116</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2288,16 +2299,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
+      <x:c r="D39" s="2" t="s"/>
       <x:c r="E39" s="3">
-        <x:v>45907.4229982639</x:v>
+        <x:v>45927.0678146991</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2329,7 +2338,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4524542824</x:v>
+        <x:v>45907.4229982639</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2361,7 +2370,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45907.4524542824</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2393,7 +2402,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4201049769</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2425,7 +2434,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45927.4187716435</x:v>
+        <x:v>45907.4201049769</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2457,7 +2466,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4290527431</x:v>
+        <x:v>45927.4187716435</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2489,7 +2498,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45927.4163854167</x:v>
+        <x:v>45907.4290527431</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2521,7 +2530,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4143381944</x:v>
+        <x:v>45927.4163854167</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2553,7 +2562,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45907.4143381944</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2585,7 +2594,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2617,7 +2626,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2649,7 +2658,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.415046956</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2681,7 +2690,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45907.415046956</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2713,7 +2722,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2745,7 +2754,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2777,7 +2786,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6656036227</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2809,7 +2818,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.6656036227</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2841,7 +2850,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2873,7 +2882,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4179391204</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2905,7 +2914,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.8047603356</x:v>
+        <x:v>45907.4179391204</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2937,7 +2946,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.4152556366</x:v>
+        <x:v>45907.8047603356</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2969,7 +2978,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45921.9668216782</x:v>
+        <x:v>45907.4152556366</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3001,7 +3010,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4205106134</x:v>
+        <x:v>45921.9668216782</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3033,7 +3042,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4199254977</x:v>
+        <x:v>45907.4205106134</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3065,7 +3074,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45907.4199254977</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3097,7 +3106,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.4205386921</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3125,9 +3134,11 @@
       <x:c r="C65" s="2" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="D65" s="2" t="s"/>
+      <x:c r="D65" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.6742420139</x:v>
+        <x:v>45907.4205386921</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3150,16 +3161,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B66" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C66" s="2" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="D66" s="2" t="s">
         <x:v>195</x:v>
       </x:c>
+      <x:c r="D66" s="2" t="s"/>
       <x:c r="E66" s="3">
-        <x:v>45907.4382828704</x:v>
+        <x:v>45907.6742420139</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3191,7 +3200,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45907.4289222569</x:v>
+        <x:v>45907.4382828704</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3208,6 +3217,38 @@
       <x:c r="R67" s="2" t="s"/>
       <x:c r="S67" s="2" t="s"/>
       <x:c r="T67" s="2" t="s"/>
+    </x:row>
+    <x:row r="68" spans="1:20">
+      <x:c r="A68" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C68" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D68" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E68" s="3">
+        <x:v>45907.4289222569</x:v>
+      </x:c>
+      <x:c r="F68" s="2" t="s"/>
+      <x:c r="G68" s="2" t="s"/>
+      <x:c r="H68" s="2" t="s"/>
+      <x:c r="I68" s="2" t="s"/>
+      <x:c r="J68" s="2" t="s"/>
+      <x:c r="K68" s="2" t="s"/>
+      <x:c r="L68" s="2" t="s"/>
+      <x:c r="M68" s="2" t="s"/>
+      <x:c r="N68" s="2" t="s"/>
+      <x:c r="O68" s="2" t="s"/>
+      <x:c r="P68" s="2" t="s"/>
+      <x:c r="Q68" s="2" t="s"/>
+      <x:c r="R68" s="2" t="s"/>
+      <x:c r="S68" s="2" t="s"/>
+      <x:c r="T68" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35666.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35666.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -147,15 +147,6 @@
     <x:t>زياد خالد سيف الله محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>1230192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سارة احمد علي سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sara Ahmed Ali Soliman</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230046</x:t>
   </x:si>
   <x:si>
@@ -351,15 +342,6 @@
     <x:t>karim wael ismaiel yousef Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1230083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزي احمد حسين عبدالعزيز</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kenzie Ahmed Hussein</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230323</x:t>
   </x:si>
   <x:si>
@@ -519,6 +501,15 @@
     <x:t>Nour Islam Mahmoud Elsayed Attia</x:t>
   </x:si>
   <x:si>
+    <x:t>1230273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين سامى حموده بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230122</x:t>
   </x:si>
   <x:si>
@@ -535,15 +526,6 @@
   </x:si>
   <x:si>
     <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هانيا هيثم محمود سلطان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hunya haytham mahmoud  soltan</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>
@@ -737,7 +719,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E68" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E66" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1037,7 +1019,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T68"/>
+  <x:dimension ref="A1:T66"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1542,7 +1524,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4174121875</x:v>
+        <x:v>45907.4411153588</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1574,7 +1556,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4411153588</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1606,7 +1588,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.4787335648</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1638,7 +1620,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4787335648</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1670,7 +1652,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1702,7 +1684,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1734,7 +1716,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45927.0690451736</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1766,7 +1748,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.0690451736</x:v>
+        <x:v>45909.4173934028</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1798,7 +1780,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4173934028</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1830,7 +1812,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45907.4610953704</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1862,7 +1844,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4610953704</x:v>
+        <x:v>45927.4222459143</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1894,7 +1876,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4222459143</x:v>
+        <x:v>45907.4263388889</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1926,7 +1908,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4263388889</x:v>
+        <x:v>45907.4144299769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1958,7 +1940,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4144299769</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1990,7 +1972,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45907.6791894329</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2018,11 +2000,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45907.6791894329</x:v>
+        <x:v>45918.0805219097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2045,14 +2025,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45918.0805219097</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2084,7 +2066,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2116,7 +2098,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2148,7 +2130,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2180,7 +2162,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45907.4234258912</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2212,7 +2194,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4234258912</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2240,11 +2222,9 @@
       <x:c r="C37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
+      <x:c r="D37" s="2" t="s"/>
       <x:c r="E37" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45927.0678146991</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2267,16 +2247,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45927.9637525116</x:v>
+        <x:v>45907.4229982639</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2299,14 +2279,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s"/>
       <x:c r="E39" s="3">
-        <x:v>45927.0678146991</x:v>
+        <x:v>45907.4524542824</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2338,7 +2320,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4229982639</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2370,7 +2352,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4524542824</x:v>
+        <x:v>45907.4201049769</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2402,7 +2384,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45927.4187716435</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2434,7 +2416,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4201049769</x:v>
+        <x:v>45907.4290527431</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2466,7 +2448,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45927.4187716435</x:v>
+        <x:v>45927.4163854167</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2498,7 +2480,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4290527431</x:v>
+        <x:v>45907.4143381944</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2530,7 +2512,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45927.4163854167</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2562,7 +2544,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4143381944</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2594,7 +2576,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2626,7 +2608,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45907.415046956</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2658,7 +2640,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2690,7 +2672,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.415046956</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2722,7 +2704,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2754,7 +2736,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45907.6656036227</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2786,7 +2768,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2818,7 +2800,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6656036227</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2850,7 +2832,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2882,7 +2864,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4179391204</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2914,7 +2896,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4179391204</x:v>
+        <x:v>45907.4152556366</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2946,7 +2928,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.8047603356</x:v>
+        <x:v>45921.9668216782</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2978,7 +2960,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4152556366</x:v>
+        <x:v>45907.4205106134</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3010,7 +2992,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45921.9668216782</x:v>
+        <x:v>45907.4199254977</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3042,7 +3024,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4205106134</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3074,7 +3056,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4199254977</x:v>
+        <x:v>45907.4205386921</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3102,11 +3084,9 @@
       <x:c r="C64" s="2" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="D64" s="2" t="s">
-        <x:v>190</x:v>
-      </x:c>
+      <x:c r="D64" s="2" t="s"/>
       <x:c r="E64" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45907.6742420139</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3129,16 +3109,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B65" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C65" s="2" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="C65" s="2" t="s">
+      <x:c r="D65" s="2" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="D65" s="2" t="s">
-        <x:v>193</x:v>
-      </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.4205386921</x:v>
+        <x:v>45907.4382828704</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3161,14 +3141,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B66" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C66" s="2" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="C66" s="2" t="s">
+      <x:c r="D66" s="2" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="D66" s="2" t="s"/>
       <x:c r="E66" s="3">
-        <x:v>45907.6742420139</x:v>
+        <x:v>45907.4289222569</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3185,70 +3167,6 @@
       <x:c r="R66" s="2" t="s"/>
       <x:c r="S66" s="2" t="s"/>
       <x:c r="T66" s="2" t="s"/>
-    </x:row>
-    <x:row r="67" spans="1:20">
-      <x:c r="A67" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B67" s="2" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="C67" s="2" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="D67" s="2" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="E67" s="3">
-        <x:v>45907.4382828704</x:v>
-      </x:c>
-      <x:c r="F67" s="2" t="s"/>
-      <x:c r="G67" s="2" t="s"/>
-      <x:c r="H67" s="2" t="s"/>
-      <x:c r="I67" s="2" t="s"/>
-      <x:c r="J67" s="2" t="s"/>
-      <x:c r="K67" s="2" t="s"/>
-      <x:c r="L67" s="2" t="s"/>
-      <x:c r="M67" s="2" t="s"/>
-      <x:c r="N67" s="2" t="s"/>
-      <x:c r="O67" s="2" t="s"/>
-      <x:c r="P67" s="2" t="s"/>
-      <x:c r="Q67" s="2" t="s"/>
-      <x:c r="R67" s="2" t="s"/>
-      <x:c r="S67" s="2" t="s"/>
-      <x:c r="T67" s="2" t="s"/>
-    </x:row>
-    <x:row r="68" spans="1:20">
-      <x:c r="A68" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B68" s="2" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="C68" s="2" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="D68" s="2" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="E68" s="3">
-        <x:v>45907.4289222569</x:v>
-      </x:c>
-      <x:c r="F68" s="2" t="s"/>
-      <x:c r="G68" s="2" t="s"/>
-      <x:c r="H68" s="2" t="s"/>
-      <x:c r="I68" s="2" t="s"/>
-      <x:c r="J68" s="2" t="s"/>
-      <x:c r="K68" s="2" t="s"/>
-      <x:c r="L68" s="2" t="s"/>
-      <x:c r="M68" s="2" t="s"/>
-      <x:c r="N68" s="2" t="s"/>
-      <x:c r="O68" s="2" t="s"/>
-      <x:c r="P68" s="2" t="s"/>
-      <x:c r="Q68" s="2" t="s"/>
-      <x:c r="R68" s="2" t="s"/>
-      <x:c r="S68" s="2" t="s"/>
-      <x:c r="T68" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35666.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35666.xlsx
@@ -375,6 +375,15 @@
     <x:t>Mohamed Ehab Said El Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد خالد ابواليزيد شلبي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Khaled Abouelyazid Shalaby</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230108</x:t>
   </x:si>
   <x:si>
@@ -499,15 +508,6 @@
   </x:si>
   <x:si>
     <x:t>Nour Islam Mahmoud Elsayed Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين سامى حموده بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230122</x:t>
@@ -2352,7 +2352,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4201049769</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2384,7 +2384,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45927.4187716435</x:v>
+        <x:v>45907.4201049769</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2416,7 +2416,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4290527431</x:v>
+        <x:v>45927.4187716435</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2448,7 +2448,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45927.4163854167</x:v>
+        <x:v>45907.4290527431</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2480,7 +2480,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4143381944</x:v>
+        <x:v>45927.4163854167</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2512,7 +2512,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45907.4143381944</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2544,7 +2544,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2576,7 +2576,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2608,7 +2608,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.415046956</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2640,7 +2640,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45907.415046956</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2672,7 +2672,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2704,7 +2704,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2736,7 +2736,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6656036227</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2768,7 +2768,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.6656036227</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2800,7 +2800,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45928.9277546643</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Lecture-35666.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35666.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -409,15 +409,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود حسن محمود عبدالغنى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Hassan Mahmoud Abdel-Ghani</x:t>
   </x:si>
   <x:si>
     <x:t>4230175</x:t>
@@ -719,7 +710,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E66" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E65" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1019,7 +1010,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T66"/>
+  <x:dimension ref="A1:T65"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2480,7 +2471,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45927.4163854167</x:v>
+        <x:v>45907.4143381944</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2512,7 +2503,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4143381944</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2544,7 +2535,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2576,7 +2567,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2608,7 +2599,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45907.415046956</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2640,7 +2631,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.415046956</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2672,7 +2663,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2704,7 +2695,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2736,7 +2727,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45907.6656036227</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2768,7 +2759,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6656036227</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2800,7 +2791,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2832,7 +2823,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4179391204</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2864,7 +2855,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4179391204</x:v>
+        <x:v>45907.4152556366</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2896,7 +2887,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4152556366</x:v>
+        <x:v>45921.9668216782</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2928,7 +2919,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45921.9668216782</x:v>
+        <x:v>45907.4205106134</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2960,7 +2951,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4205106134</x:v>
+        <x:v>45907.4199254977</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2992,7 +2983,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4199254977</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3024,7 +3015,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45907.4205386921</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3052,11 +3043,9 @@
       <x:c r="C63" s="2" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="D63" s="2" t="s">
-        <x:v>187</x:v>
-      </x:c>
+      <x:c r="D63" s="2" t="s"/>
       <x:c r="E63" s="3">
-        <x:v>45907.4205386921</x:v>
+        <x:v>45907.6742420139</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3079,14 +3068,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B64" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C64" s="2" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="C64" s="2" t="s">
+      <x:c r="D64" s="2" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="D64" s="2" t="s"/>
       <x:c r="E64" s="3">
-        <x:v>45907.6742420139</x:v>
+        <x:v>45907.4382828704</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3118,7 +3109,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.4382828704</x:v>
+        <x:v>45907.4289222569</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3135,38 +3126,6 @@
       <x:c r="R65" s="2" t="s"/>
       <x:c r="S65" s="2" t="s"/>
       <x:c r="T65" s="2" t="s"/>
-    </x:row>
-    <x:row r="66" spans="1:20">
-      <x:c r="A66" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B66" s="2" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="C66" s="2" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="D66" s="2" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="E66" s="3">
-        <x:v>45907.4289222569</x:v>
-      </x:c>
-      <x:c r="F66" s="2" t="s"/>
-      <x:c r="G66" s="2" t="s"/>
-      <x:c r="H66" s="2" t="s"/>
-      <x:c r="I66" s="2" t="s"/>
-      <x:c r="J66" s="2" t="s"/>
-      <x:c r="K66" s="2" t="s"/>
-      <x:c r="L66" s="2" t="s"/>
-      <x:c r="M66" s="2" t="s"/>
-      <x:c r="N66" s="2" t="s"/>
-      <x:c r="O66" s="2" t="s"/>
-      <x:c r="P66" s="2" t="s"/>
-      <x:c r="Q66" s="2" t="s"/>
-      <x:c r="R66" s="2" t="s"/>
-      <x:c r="S66" s="2" t="s"/>
-      <x:c r="T66" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35666.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35666.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -481,15 +481,6 @@
   </x:si>
   <x:si>
     <x:t>Malak Ashraf Talaat abdel hameed Sadek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك هاني يسري عزو</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MALAK</x:t>
   </x:si>
   <x:si>
     <x:t>1230272</x:t>
@@ -710,7 +701,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E65" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E64" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1010,7 +1001,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T65"/>
+  <x:dimension ref="A1:T64"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2727,7 +2718,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6656036227</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2759,7 +2750,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2791,7 +2782,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4179391204</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2823,7 +2814,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4179391204</x:v>
+        <x:v>45907.4152556366</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2855,7 +2846,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4152556366</x:v>
+        <x:v>45921.9668216782</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2887,7 +2878,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45921.9668216782</x:v>
+        <x:v>45907.4205106134</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2919,7 +2910,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.4205106134</x:v>
+        <x:v>45907.4199254977</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2951,7 +2942,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4199254977</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2983,7 +2974,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45907.4205386921</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3011,11 +3002,9 @@
       <x:c r="C62" s="2" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="D62" s="2" t="s">
-        <x:v>184</x:v>
-      </x:c>
+      <x:c r="D62" s="2" t="s"/>
       <x:c r="E62" s="3">
-        <x:v>45907.4205386921</x:v>
+        <x:v>45907.6742420139</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3038,14 +3027,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B63" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="C63" s="2" t="s">
+      <x:c r="D63" s="2" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="D63" s="2" t="s"/>
       <x:c r="E63" s="3">
-        <x:v>45907.6742420139</x:v>
+        <x:v>45907.4382828704</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3077,7 +3068,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.4382828704</x:v>
+        <x:v>45907.4289222569</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3094,38 +3085,6 @@
       <x:c r="R64" s="2" t="s"/>
       <x:c r="S64" s="2" t="s"/>
       <x:c r="T64" s="2" t="s"/>
-    </x:row>
-    <x:row r="65" spans="1:20">
-      <x:c r="A65" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B65" s="2" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="C65" s="2" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="D65" s="2" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="E65" s="3">
-        <x:v>45907.4289222569</x:v>
-      </x:c>
-      <x:c r="F65" s="2" t="s"/>
-      <x:c r="G65" s="2" t="s"/>
-      <x:c r="H65" s="2" t="s"/>
-      <x:c r="I65" s="2" t="s"/>
-      <x:c r="J65" s="2" t="s"/>
-      <x:c r="K65" s="2" t="s"/>
-      <x:c r="L65" s="2" t="s"/>
-      <x:c r="M65" s="2" t="s"/>
-      <x:c r="N65" s="2" t="s"/>
-      <x:c r="O65" s="2" t="s"/>
-      <x:c r="P65" s="2" t="s"/>
-      <x:c r="Q65" s="2" t="s"/>
-      <x:c r="R65" s="2" t="s"/>
-      <x:c r="S65" s="2" t="s"/>
-      <x:c r="T65" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35666.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35666.xlsx
@@ -171,7 +171,7 @@
     <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
   </x:si>
   <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali Rajab</x:t>
   </x:si>
   <x:si>
     <x:t>1230055</x:t>
@@ -180,7 +180,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>1190372</x:t>
@@ -327,10 +327,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1230228</x:t>
@@ -399,7 +399,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1220277</x:t>
@@ -507,7 +507,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>
@@ -576,7 +576,7 @@
     <x:t>يوسف ناصر سيد منسي ابراهيم</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssef Nasser Sayed Mansy</x:t>
+    <x:t>YOUSSEF NASSER SAYED MANSY IBRAHIM</x:t>
   </x:si>
   <x:si>
     <x:t>1230293</x:t>
